--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H2">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I2">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J2">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N2">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q2">
-        <v>8.564927801162668</v>
+        <v>22.68541418384022</v>
       </c>
       <c r="R2">
-        <v>77.08435021046401</v>
+        <v>204.168727654562</v>
       </c>
       <c r="S2">
-        <v>0.04968917815017236</v>
+        <v>0.09829716128249907</v>
       </c>
       <c r="T2">
-        <v>0.04968917815017238</v>
+        <v>0.0982971612824991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H3">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I3">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J3">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q3">
-        <v>23.04540509029689</v>
+        <v>46.2109891931991</v>
       </c>
       <c r="R3">
-        <v>207.4086458126719</v>
+        <v>415.8989027387919</v>
       </c>
       <c r="S3">
-        <v>0.1336972436497603</v>
+        <v>0.2002347861465745</v>
       </c>
       <c r="T3">
-        <v>0.1336972436497603</v>
+        <v>0.2002347861465745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H4">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I4">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J4">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N4">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q4">
-        <v>15.52957324981511</v>
+        <v>31.99907818420377</v>
       </c>
       <c r="R4">
-        <v>139.766159248336</v>
+        <v>287.991703657834</v>
       </c>
       <c r="S4">
-        <v>0.09009436503381434</v>
+        <v>0.1386537853650735</v>
       </c>
       <c r="T4">
-        <v>0.09009436503381435</v>
+        <v>0.1386537853650735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H5">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I5">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J5">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N5">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O5">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P5">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q5">
-        <v>4.241929343692444</v>
+        <v>7.753694765182665</v>
       </c>
       <c r="R5">
-        <v>38.177364093232</v>
+        <v>69.78325288664399</v>
       </c>
       <c r="S5">
-        <v>0.02460942902876134</v>
+        <v>0.0335971906305926</v>
       </c>
       <c r="T5">
-        <v>0.02460942902876135</v>
+        <v>0.03359719063059261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.078262</v>
       </c>
       <c r="I6">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J6">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N6">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q6">
-        <v>11.07546149334534</v>
+        <v>14.62931257814156</v>
       </c>
       <c r="R6">
-        <v>99.67915344010802</v>
+        <v>131.663813203274</v>
       </c>
       <c r="S6">
-        <v>0.06425396594277238</v>
+        <v>0.06338962499393268</v>
       </c>
       <c r="T6">
-        <v>0.06425396594277238</v>
+        <v>0.06338962499393269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.078262</v>
       </c>
       <c r="I7">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J7">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N7">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q7">
         <v>29.80042594655378</v>
@@ -883,10 +883,10 @@
         <v>268.203833518984</v>
       </c>
       <c r="S7">
-        <v>0.172886299591261</v>
+        <v>0.1291269029437527</v>
       </c>
       <c r="T7">
-        <v>0.172886299591261</v>
+        <v>0.1291269029437527</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.078262</v>
       </c>
       <c r="I8">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J8">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N8">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q8">
-        <v>20.08156922386022</v>
+        <v>20.63548468524644</v>
       </c>
       <c r="R8">
-        <v>180.734123014742</v>
+        <v>185.719362167218</v>
       </c>
       <c r="S8">
-        <v>0.1165026365504161</v>
+        <v>0.08941470276055753</v>
       </c>
       <c r="T8">
-        <v>0.1165026365504161</v>
+        <v>0.08941470276055755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.078262</v>
       </c>
       <c r="I9">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J9">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N9">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O9">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P9">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q9">
-        <v>5.485314785394888</v>
+        <v>5.000183088398666</v>
       </c>
       <c r="R9">
-        <v>49.367833068554</v>
+        <v>45.001647795588</v>
       </c>
       <c r="S9">
-        <v>0.03182289330498053</v>
+        <v>0.02166607140161747</v>
       </c>
       <c r="T9">
-        <v>0.03182289330498054</v>
+        <v>0.02166607140161748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H10">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I10">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J10">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N10">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q10">
-        <v>7.07927282508</v>
+        <v>10.41776459800367</v>
       </c>
       <c r="R10">
-        <v>63.71345542572001</v>
+        <v>93.75988138203302</v>
       </c>
       <c r="S10">
-        <v>0.04107019425561569</v>
+        <v>0.04514075337546803</v>
       </c>
       <c r="T10">
-        <v>0.0410701942556157</v>
+        <v>0.04514075337546804</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H11">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I11">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J11">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N11">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q11">
-        <v>19.04799594184</v>
+        <v>21.22135409802533</v>
       </c>
       <c r="R11">
-        <v>171.43196347656</v>
+        <v>190.992186882228</v>
       </c>
       <c r="S11">
-        <v>0.1105063913824662</v>
+        <v>0.09195330750860013</v>
       </c>
       <c r="T11">
-        <v>0.1105063913824662</v>
+        <v>0.09195330750860015</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H12">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I12">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J12">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N12">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q12">
-        <v>12.83584502342</v>
+        <v>14.69485463984233</v>
       </c>
       <c r="R12">
-        <v>115.52260521078</v>
+        <v>132.253691758581</v>
       </c>
       <c r="S12">
-        <v>0.07446677950865384</v>
+        <v>0.06367362239233054</v>
       </c>
       <c r="T12">
-        <v>0.07446677950865384</v>
+        <v>0.06367362239233056</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H13">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I13">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J13">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N13">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O13">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P13">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q13">
-        <v>3.50613289754</v>
+        <v>3.560709369194</v>
       </c>
       <c r="R13">
-        <v>31.55519607786</v>
+        <v>32.046384322746</v>
       </c>
       <c r="S13">
-        <v>0.02034072746537286</v>
+        <v>0.01542875172158388</v>
       </c>
       <c r="T13">
-        <v>0.02034072746537286</v>
+        <v>0.01542875172158388</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H14">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I14">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J14">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N14">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O14">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P14">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q14">
-        <v>2.013007875569333</v>
+        <v>0.4540784051491112</v>
       </c>
       <c r="R14">
-        <v>18.117070880124</v>
+        <v>4.086705646342001</v>
       </c>
       <c r="S14">
-        <v>0.01167840631806453</v>
+        <v>0.001967546982573378</v>
       </c>
       <c r="T14">
-        <v>0.01167840631806453</v>
+        <v>0.001967546982573378</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H15">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I15">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J15">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N15">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O15">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P15">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q15">
-        <v>5.416342439705777</v>
+        <v>0.9249737343635557</v>
       </c>
       <c r="R15">
-        <v>48.74708195735199</v>
+        <v>8.324763609272001</v>
       </c>
       <c r="S15">
-        <v>0.03142275225861745</v>
+        <v>0.004007962632376255</v>
       </c>
       <c r="T15">
-        <v>0.03142275225861745</v>
+        <v>0.004007962632376255</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H16">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I16">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J16">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N16">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O16">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P16">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q16">
-        <v>3.649902717436222</v>
+        <v>0.6405036412548889</v>
       </c>
       <c r="R16">
-        <v>32.84912445692599</v>
+        <v>5.764532771294</v>
       </c>
       <c r="S16">
-        <v>0.02117480387083559</v>
+        <v>0.002775337898450564</v>
       </c>
       <c r="T16">
-        <v>0.0211748038708356</v>
+        <v>0.002775337898450564</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H17">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I17">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J17">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N17">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O17">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P17">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q17">
-        <v>0.9969771345068887</v>
+        <v>0.1552003998893333</v>
       </c>
       <c r="R17">
-        <v>8.972794210561998</v>
+        <v>1.396803599004</v>
       </c>
       <c r="S17">
-        <v>0.005783933688435336</v>
+        <v>0.0006724919640170145</v>
       </c>
       <c r="T17">
-        <v>0.005783933688435339</v>
+        <v>0.0006724919640170146</v>
       </c>
     </row>
   </sheetData>
